--- a/Module3 Excel/assesment.xlsx
+++ b/Module3 Excel/assesment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A1926B-ECA5-41A1-AED3-08A99B95E6D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602C481-BBE8-461B-A54B-174EC648B1CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" activeTab="2" xr2:uid="{3738BF94-5541-4122-9848-F693FA83B785}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{3738BF94-5541-4122-9848-F693FA83B785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,21 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$A$18</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet6!$A$1:$I$48</definedName>
+    <definedName name="Slicer_Account_Code">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -464,6 +473,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Account Code">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D3BC5A-EF37-46F4-8ED1-4CE31B655DD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Account Code"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3073400" y="958850"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DELL" refreshedDate="45821.446533796297" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="22" xr:uid="{EB3EF8BB-0CD8-4595-8904-70374F137537}">
   <cacheSource type="worksheet">
@@ -510,7 +602,26 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Account Code" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="18">
+        <s v="BS-500"/>
+        <s v="IS-380"/>
+        <s v="IS-375"/>
+        <s v="IS-340"/>
+        <s v="IS-315"/>
+        <s v="IS-305"/>
+        <s v="IS-345"/>
+        <s v="IS-390"/>
+        <s v="BS-399"/>
+        <s v="IS-365"/>
+        <s v="BS-700"/>
+        <s v="IS-500"/>
+        <s v="IS-350"/>
+        <s v="BS-600"/>
+        <s v="BS-100"/>
+        <s v="IS-325"/>
+        <s v="IS-385"/>
+        <s v="IS-370"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Payment Date" numFmtId="0">
       <sharedItems/>
@@ -518,7 +629,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="858370156"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -534,7 +645,7 @@
     <n v="5100"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="BS-500"/>
+    <x v="0"/>
     <s v="03-02-2011"/>
   </r>
   <r>
@@ -545,7 +656,7 @@
     <n v="179"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-380"/>
+    <x v="1"/>
     <s v="03-31-2011"/>
   </r>
   <r>
@@ -556,7 +667,7 @@
     <n v="478"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-375"/>
+    <x v="2"/>
     <s v="04-01-2011"/>
   </r>
   <r>
@@ -567,7 +678,7 @@
     <n v="340"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-340"/>
+    <x v="3"/>
     <s v="03-05-2011"/>
   </r>
   <r>
@@ -578,7 +689,7 @@
     <n v="50"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-315"/>
+    <x v="4"/>
     <s v="03-15-2011"/>
   </r>
   <r>
@@ -589,7 +700,7 @@
     <n v="1000"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-305"/>
+    <x v="5"/>
     <s v="04-02-2011"/>
   </r>
   <r>
@@ -600,7 +711,7 @@
     <n v="90"/>
     <s v="A"/>
     <s v="PC"/>
-    <s v="IS-345"/>
+    <x v="6"/>
     <s v="03-15-2011"/>
   </r>
   <r>
@@ -611,7 +722,7 @@
     <n v="200"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-390"/>
+    <x v="7"/>
     <s v="03-18-2011"/>
   </r>
   <r>
@@ -622,7 +733,7 @@
     <n v="-15000"/>
     <s v="E"/>
     <s v="B2"/>
-    <s v="BS-399"/>
+    <x v="8"/>
     <s v="03-20-2011"/>
   </r>
   <r>
@@ -633,7 +744,7 @@
     <n v="13000"/>
     <s v="E"/>
     <s v="B2"/>
-    <s v="IS-365"/>
+    <x v="9"/>
     <s v="03-26-2011"/>
   </r>
   <r>
@@ -644,7 +755,7 @@
     <n v="220"/>
     <s v="E"/>
     <s v="B1"/>
-    <s v="BS-700"/>
+    <x v="10"/>
     <s v="03-26-2011"/>
   </r>
   <r>
@@ -655,7 +766,7 @@
     <n v="100"/>
     <s v="E"/>
     <s v="B1"/>
-    <s v="IS-500"/>
+    <x v="11"/>
     <s v="03-26-2011"/>
   </r>
   <r>
@@ -666,7 +777,7 @@
     <n v="6400"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-350"/>
+    <x v="12"/>
     <s v="03-26-2011"/>
   </r>
   <r>
@@ -677,7 +788,7 @@
     <n v="100"/>
     <s v="E"/>
     <s v="B1"/>
-    <s v="BS-399"/>
+    <x v="8"/>
     <s v="03-31-2011"/>
   </r>
   <r>
@@ -688,7 +799,7 @@
     <n v="179"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-380"/>
+    <x v="1"/>
     <s v="05-01-2011"/>
   </r>
   <r>
@@ -699,7 +810,7 @@
     <n v="1300"/>
     <s v="E"/>
     <s v="B1"/>
-    <s v="BS-600"/>
+    <x v="13"/>
     <s v="04-25-2011"/>
   </r>
   <r>
@@ -710,7 +821,7 @@
     <n v="3000"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="BS-100"/>
+    <x v="14"/>
     <s v="05-26-2011"/>
   </r>
   <r>
@@ -721,7 +832,7 @@
     <n v="41"/>
     <s v="A"/>
     <s v="PC"/>
-    <s v="IS-325"/>
+    <x v="15"/>
     <s v="05-29-2011"/>
   </r>
   <r>
@@ -732,7 +843,7 @@
     <n v="220"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-385"/>
+    <x v="16"/>
     <s v="05-31-2011"/>
   </r>
   <r>
@@ -743,7 +854,7 @@
     <n v="563"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-390"/>
+    <x v="7"/>
     <s v="05-07-2011"/>
   </r>
   <r>
@@ -754,7 +865,7 @@
     <n v="982"/>
     <s v="A"/>
     <s v="B1"/>
-    <s v="IS-370"/>
+    <x v="17"/>
     <s v="06-06-2011"/>
   </r>
   <r>
@@ -765,14 +876,14 @@
     <n v="100"/>
     <s v="E"/>
     <s v="B1"/>
-    <s v="IS-500"/>
+    <x v="11"/>
     <s v="05-26-2011"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B09F7DAE-1085-412B-AA4E-DCBD6CAF8A41}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Supplier">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B09F7DAE-1085-412B-AA4E-DCBD6CAF8A41}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Supplier">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -803,7 +914,29 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="19">
+        <item x="14"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -906,6 +1039,44 @@
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Account_Code" xr10:uid="{1F976C3C-F463-4479-AD8A-94D592605970}" sourceName="Account Code">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="858370156">
+      <items count="18">
+        <i x="14" s="1"/>
+        <i x="8" s="1"/>
+        <i x="0" s="1"/>
+        <i x="13" s="1"/>
+        <i x="10" s="1"/>
+        <i x="5" s="1"/>
+        <i x="4" s="1"/>
+        <i x="15" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
+        <i x="12" s="1"/>
+        <i x="9" s="1"/>
+        <i x="17" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="16" s="1"/>
+        <i x="7" s="1"/>
+        <i x="11" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Account Code" xr10:uid="{DF42B09B-76F0-4D44-AFF8-D3F4DB914FE6}" cache="Slicer_Account_Code" caption="Account Code" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB2FFC-15D0-4CFC-A2FD-8006D754E8B4}">
   <dimension ref="A3:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1391,6 +1562,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1516,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72F3307-BCDC-48CE-BE09-59479BB26ACE}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
